--- a/biology/Médecine/Mésomorphe/Mésomorphe.xlsx
+++ b/biology/Médecine/Mésomorphe/Mésomorphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9somorphe</t>
+          <t>Mésomorphe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mésomorphe est un développement de la musculature et du système circulatoire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9somorphe</t>
+          <t>Mésomorphe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce terme a été introduit par  William H. Sheldon pour caractériser un individu chez qui prédominent les muscles, les os et le tissu conjonctif, qui dérivent tous du mésoderme ou feuillet intermédiaire de l'embryon. L'individu aura un aspect physique qui exprime la robustesse et la vigueur. On peut établir une corrélation, selon Sheldon, avec un tempérament somatotonique, courageux, énergique, actif, dynamique, autoritaire, agressif ou encore preneur de risque.
 </t>
